--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B5D42-2CD7-4257-87D7-9AC8763460D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C085CF0-CABE-4F7B-ABC2-FBCBD161AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13711" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="232">
   <si>
     <t>ЮЦ</t>
   </si>
@@ -699,9 +699,6 @@
     <t>Кабардино-Балкарская Республика</t>
   </si>
   <si>
-    <t>Карачаево Черкесская Республика</t>
-  </si>
-  <si>
     <t>Республика Ингушетия</t>
   </si>
   <si>
@@ -730,6 +727,15 @@
   </si>
   <si>
     <t>2025 (претензии)</t>
+  </si>
+  <si>
+    <t>Карачаево-Черкесская Республика</t>
+  </si>
+  <si>
+    <t>Ненецкий автономный округ</t>
+  </si>
+  <si>
+    <t>Республика Калмыкия</t>
   </si>
 </sst>
 </file>
@@ -1054,9 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A80A33-719D-4387-8101-0A2A2898D3B6}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1075,7 +1081,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
         <v>142</v>
@@ -1084,7 +1090,7 @@
         <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
@@ -1093,7 +1099,7 @@
         <v>137</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
         <v>138</v>
@@ -1102,7 +1108,7 @@
         <v>139</v>
       </c>
       <c r="L1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M1" t="s">
         <v>140</v>
@@ -1572,7 +1578,7 @@
         <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1613,7 +1619,7 @@
         <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1654,7 +1660,7 @@
         <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -2189,7 +2195,7 @@
         <v>163</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -2306,7 +2312,7 @@
         <v>163</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2347,7 +2353,7 @@
         <v>163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -2616,7 +2622,7 @@
         <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
@@ -2958,10 +2964,10 @@
         <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -3075,10 +3081,10 @@
         <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -3116,10 +3122,10 @@
         <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -3347,10 +3353,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
         <v>61</v>
@@ -3540,10 +3546,10 @@
         <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" t="s">
         <v>65</v>
@@ -3926,7 +3932,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -4081,7 +4087,7 @@
         <v>179</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
         <v>83</v>
@@ -4122,7 +4128,7 @@
         <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
         <v>84</v>
@@ -4163,7 +4169,7 @@
         <v>179</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
         <v>85</v>
@@ -4204,7 +4210,7 @@
         <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
         <v>86</v>
@@ -4663,7 +4669,7 @@
         <v>144</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
         <v>77</v>
@@ -4739,7 +4745,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
@@ -4780,7 +4786,7 @@
         <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
@@ -4859,7 +4865,7 @@
         <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
@@ -4900,7 +4906,7 @@
         <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
         <v>99</v>
@@ -5131,7 +5137,7 @@
         <v>186</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D106" t="s">
         <v>111</v>
@@ -5324,7 +5330,7 @@
         <v>186</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D111" t="s">
         <v>115</v>
@@ -5552,7 +5558,7 @@
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
@@ -5631,7 +5637,7 @@
         <v>186</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D119" t="s">
         <v>123</v>
@@ -5672,7 +5678,7 @@
         <v>186</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D120" t="s">
         <v>124</v>
@@ -5713,7 +5719,7 @@
         <v>186</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D121" t="s">
         <v>125</v>
@@ -6134,10 +6140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC67C75-F757-456E-9D16-AAB31468DBA1}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6503,15 +6509,15 @@
         <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -6519,7 +6525,7 @@
         <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -6527,7 +6533,7 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -6535,7 +6541,7 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -6543,7 +6549,7 @@
         <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -6551,7 +6557,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -6559,7 +6565,7 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -6567,7 +6573,7 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -6575,15 +6581,15 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -6591,7 +6597,7 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -6599,7 +6605,7 @@
         <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -6607,7 +6613,7 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -6615,7 +6621,7 @@
         <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -6623,7 +6629,7 @@
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -6631,15 +6637,15 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -6647,7 +6653,7 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -6655,7 +6661,7 @@
         <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -6663,7 +6669,7 @@
         <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -6671,7 +6677,7 @@
         <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -6679,7 +6685,7 @@
         <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -6687,7 +6693,7 @@
         <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -6695,7 +6701,7 @@
         <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -6703,7 +6709,7 @@
         <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -6711,7 +6717,7 @@
         <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -6719,7 +6725,7 @@
         <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -6727,7 +6733,7 @@
         <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -6735,7 +6741,7 @@
         <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -6743,7 +6749,7 @@
         <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -6751,7 +6757,7 @@
         <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -6759,7 +6765,7 @@
         <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -6767,7 +6773,7 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -6775,7 +6781,7 @@
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -6783,7 +6789,23 @@
         <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
